--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2196</v>
+        <v>2196.599662171774</v>
       </c>
       <c r="C2">
-        <v>2201</v>
+        <v>2205.423038560061</v>
       </c>
       <c r="D2">
-        <v>2208</v>
+        <v>2213.267102976351</v>
       </c>
       <c r="E2">
-        <v>2207</v>
+        <v>2211.062976753502</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2201</v>
+        <v>2201.606885761249</v>
       </c>
       <c r="C3">
-        <v>2203</v>
+        <v>2208.593229574046</v>
       </c>
       <c r="D3">
-        <v>2210</v>
+        <v>2214.879550218847</v>
       </c>
       <c r="E3">
-        <v>2207</v>
+        <v>2212.289353747457</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2177</v>
+        <v>2178.408688171938</v>
       </c>
       <c r="C4">
-        <v>2189</v>
+        <v>2192.085558436731</v>
       </c>
       <c r="D4">
-        <v>2199</v>
+        <v>2204.643962329801</v>
       </c>
       <c r="E4">
-        <v>2197</v>
+        <v>2204.188048573605</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2198</v>
+        <v>2198.951043606867</v>
       </c>
       <c r="C5">
-        <v>2201</v>
+        <v>2206.043190708929</v>
       </c>
       <c r="D5">
-        <v>2208</v>
+        <v>2213.264139928402</v>
       </c>
       <c r="E5">
-        <v>2206</v>
+        <v>2212.0045224477</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2206</v>
+        <v>2206.670585597019</v>
       </c>
       <c r="C6">
-        <v>2208</v>
+        <v>2213.253418125554</v>
       </c>
       <c r="D6">
-        <v>2215</v>
+        <v>2219.368179815974</v>
       </c>
       <c r="E6">
-        <v>2211</v>
+        <v>2216.909327032102</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2189</v>
+        <v>2191.721997665262</v>
       </c>
       <c r="C7">
-        <v>2197</v>
+        <v>2200.677181678597</v>
       </c>
       <c r="D7">
-        <v>2203</v>
+        <v>2209.792567099627</v>
       </c>
       <c r="E7">
-        <v>2203</v>
+        <v>2209.28319458538</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2186</v>
+        <v>2188.904419689039</v>
       </c>
       <c r="C8">
-        <v>2193</v>
+        <v>2196.697326503753</v>
       </c>
       <c r="D8">
-        <v>2200</v>
+        <v>2204.063040089982</v>
       </c>
       <c r="E8">
-        <v>2196</v>
+        <v>2202.028990745872</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2194</v>
+        <v>2194.535756323377</v>
       </c>
       <c r="C9">
-        <v>2196</v>
+        <v>2200.595623566658</v>
       </c>
       <c r="D9">
-        <v>2202</v>
+        <v>2207.328665015756</v>
       </c>
       <c r="E9">
-        <v>2200</v>
+        <v>2205.775692409016</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2045</v>
+        <v>2045.207259279136</v>
       </c>
       <c r="C10">
-        <v>2094</v>
+        <v>2097.389136720578</v>
       </c>
       <c r="D10">
-        <v>2149</v>
+        <v>2152.809230531152</v>
       </c>
       <c r="E10">
-        <v>2168</v>
+        <v>2172.380610578276</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2034</v>
+        <v>2033.936097627198</v>
       </c>
       <c r="C11">
-        <v>2100</v>
+        <v>2104.203142466426</v>
       </c>
       <c r="D11">
-        <v>2154</v>
+        <v>2155.703348248459</v>
       </c>
       <c r="E11">
-        <v>2168</v>
+        <v>2173.445557392237</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1880</v>
+        <v>1876.610898948367</v>
       </c>
       <c r="C12">
-        <v>1991</v>
+        <v>1991.94078381052</v>
       </c>
       <c r="D12">
-        <v>2096</v>
+        <v>2098.051720771348</v>
       </c>
       <c r="E12">
-        <v>2131</v>
+        <v>2134.639480504867</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2034</v>
+        <v>2034.261254671876</v>
       </c>
       <c r="C13">
-        <v>2085</v>
+        <v>2087.825279412683</v>
       </c>
       <c r="D13">
-        <v>2142</v>
+        <v>2145.920377647311</v>
       </c>
       <c r="E13">
-        <v>2163</v>
+        <v>2167.399040879289</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2196.599662171774</v>
+        <v>2190.612819734337</v>
       </c>
       <c r="C2">
-        <v>2205.423038560061</v>
+        <v>2200.639230705512</v>
       </c>
       <c r="D2">
-        <v>2213.267102976351</v>
+        <v>2209.506760522721</v>
       </c>
       <c r="E2">
-        <v>2211.062976753502</v>
+        <v>2207.634784525159</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2201.606885761249</v>
+        <v>2198.281541360206</v>
       </c>
       <c r="C3">
-        <v>2208.593229574046</v>
+        <v>2205.719803397429</v>
       </c>
       <c r="D3">
-        <v>2214.879550218847</v>
+        <v>2211.695424136647</v>
       </c>
       <c r="E3">
-        <v>2212.289353747457</v>
+        <v>2208.597110484804</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2178.408688171938</v>
+        <v>2182.37717706186</v>
       </c>
       <c r="C4">
-        <v>2192.085558436731</v>
+        <v>2194.661957547196</v>
       </c>
       <c r="D4">
-        <v>2204.643962329801</v>
+        <v>2204.844960738918</v>
       </c>
       <c r="E4">
-        <v>2204.188048573605</v>
+        <v>2202.875555940004</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2198.951043606867</v>
+        <v>2198.448727043448</v>
       </c>
       <c r="C5">
-        <v>2206.043190708929</v>
+        <v>2203.867710797489</v>
       </c>
       <c r="D5">
-        <v>2213.264139928402</v>
+        <v>2208.719627036477</v>
       </c>
       <c r="E5">
-        <v>2212.0045224477</v>
+        <v>2205.646168140773</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2206.670585597019</v>
+        <v>2206.567653102345</v>
       </c>
       <c r="C6">
-        <v>2213.253418125554</v>
+        <v>2213.018487118169</v>
       </c>
       <c r="D6">
-        <v>2219.368179815974</v>
+        <v>2218.606106432128</v>
       </c>
       <c r="E6">
-        <v>2216.909327032102</v>
+        <v>2215.53731907797</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2191.721997665262</v>
+        <v>2196.407198532715</v>
       </c>
       <c r="C7">
-        <v>2200.677181678597</v>
+        <v>2203.383159260813</v>
       </c>
       <c r="D7">
-        <v>2209.792567099627</v>
+        <v>2209.81957095418</v>
       </c>
       <c r="E7">
-        <v>2209.28319458538</v>
+        <v>2207.230470444339</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2188.904419689039</v>
+        <v>2202.04037780713</v>
       </c>
       <c r="C8">
-        <v>2196.697326503753</v>
+        <v>2210.043914823413</v>
       </c>
       <c r="D8">
-        <v>2204.063040089982</v>
+        <v>2216.915594465268</v>
       </c>
       <c r="E8">
-        <v>2202.028990745872</v>
+        <v>2214.204966666995</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2194.535756323377</v>
+        <v>2189.386429277899</v>
       </c>
       <c r="C9">
-        <v>2200.595623566658</v>
+        <v>2195.962151382339</v>
       </c>
       <c r="D9">
-        <v>2207.328665015756</v>
+        <v>2202.332761835868</v>
       </c>
       <c r="E9">
-        <v>2205.775692409016</v>
+        <v>2200.161966841423</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2045.207259279136</v>
+        <v>2047.651974528498</v>
       </c>
       <c r="C10">
-        <v>2097.389136720578</v>
+        <v>2084.172718744583</v>
       </c>
       <c r="D10">
-        <v>2152.809230531152</v>
+        <v>2130.293612486543</v>
       </c>
       <c r="E10">
-        <v>2172.380610578276</v>
+        <v>2151.92790802539</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2033.936097627198</v>
+        <v>2038.003105663709</v>
       </c>
       <c r="C11">
-        <v>2104.203142466426</v>
+        <v>2088.182241572058</v>
       </c>
       <c r="D11">
-        <v>2155.703348248459</v>
+        <v>2138.163422438887</v>
       </c>
       <c r="E11">
-        <v>2173.445557392237</v>
+        <v>2159.484937073335</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1876.610898948367</v>
+        <v>1810.087415029454</v>
       </c>
       <c r="C12">
-        <v>1991.94078381052</v>
+        <v>1919.932450611485</v>
       </c>
       <c r="D12">
-        <v>2098.051720771348</v>
+        <v>2038.577522065116</v>
       </c>
       <c r="E12">
-        <v>2134.639480504867</v>
+        <v>2095.817069746987</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2034.261254671876</v>
+        <v>2015.670070998664</v>
       </c>
       <c r="C13">
-        <v>2087.825279412683</v>
+        <v>2060.454494696883</v>
       </c>
       <c r="D13">
-        <v>2145.920377647311</v>
+        <v>2115.28901417722</v>
       </c>
       <c r="E13">
-        <v>2167.399040879289</v>
+        <v>2141.866581404484</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2190.612819734337</v>
+        <v>2191</v>
       </c>
       <c r="C2">
-        <v>2200.639230705512</v>
+        <v>2201</v>
       </c>
       <c r="D2">
-        <v>2209.506760522721</v>
+        <v>2210</v>
       </c>
       <c r="E2">
-        <v>2207.634784525159</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2198.281541360206</v>
+        <v>2198</v>
       </c>
       <c r="C3">
-        <v>2205.719803397429</v>
+        <v>2206</v>
       </c>
       <c r="D3">
-        <v>2211.695424136647</v>
+        <v>2212</v>
       </c>
       <c r="E3">
-        <v>2208.597110484804</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2182.37717706186</v>
+        <v>2182</v>
       </c>
       <c r="C4">
-        <v>2194.661957547196</v>
+        <v>2195</v>
       </c>
       <c r="D4">
-        <v>2204.844960738918</v>
+        <v>2205</v>
       </c>
       <c r="E4">
-        <v>2202.875555940004</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2198.448727043448</v>
+        <v>2198</v>
       </c>
       <c r="C5">
-        <v>2203.867710797489</v>
+        <v>2204</v>
       </c>
       <c r="D5">
-        <v>2208.719627036477</v>
+        <v>2209</v>
       </c>
       <c r="E5">
-        <v>2205.646168140773</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2206.567653102345</v>
+        <v>2207</v>
       </c>
       <c r="C6">
-        <v>2213.018487118169</v>
+        <v>2213</v>
       </c>
       <c r="D6">
-        <v>2218.606106432128</v>
+        <v>2219</v>
       </c>
       <c r="E6">
-        <v>2215.53731907797</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2196.407198532715</v>
+        <v>2196</v>
       </c>
       <c r="C7">
-        <v>2203.383159260813</v>
+        <v>2203</v>
       </c>
       <c r="D7">
-        <v>2209.81957095418</v>
+        <v>2210</v>
       </c>
       <c r="E7">
-        <v>2207.230470444339</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2202.04037780713</v>
+        <v>2202</v>
       </c>
       <c r="C8">
-        <v>2210.043914823413</v>
+        <v>2210</v>
       </c>
       <c r="D8">
-        <v>2216.915594465268</v>
+        <v>2217</v>
       </c>
       <c r="E8">
-        <v>2214.204966666995</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2189.386429277899</v>
+        <v>2189</v>
       </c>
       <c r="C9">
-        <v>2195.962151382339</v>
+        <v>2196</v>
       </c>
       <c r="D9">
-        <v>2202.332761835868</v>
+        <v>2202</v>
       </c>
       <c r="E9">
-        <v>2200.161966841423</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2047.651974528498</v>
+        <v>2048</v>
       </c>
       <c r="C10">
-        <v>2084.172718744583</v>
+        <v>2084</v>
       </c>
       <c r="D10">
-        <v>2130.293612486543</v>
+        <v>2130</v>
       </c>
       <c r="E10">
-        <v>2151.92790802539</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2038.003105663709</v>
+        <v>2038</v>
       </c>
       <c r="C11">
-        <v>2088.182241572058</v>
+        <v>2088</v>
       </c>
       <c r="D11">
-        <v>2138.163422438887</v>
+        <v>2138</v>
       </c>
       <c r="E11">
-        <v>2159.484937073335</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1810.087415029454</v>
+        <v>1810</v>
       </c>
       <c r="C12">
-        <v>1919.932450611485</v>
+        <v>1920</v>
       </c>
       <c r="D12">
-        <v>2038.577522065116</v>
+        <v>2039</v>
       </c>
       <c r="E12">
-        <v>2095.817069746987</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2015.670070998664</v>
+        <v>2016</v>
       </c>
       <c r="C13">
-        <v>2060.454494696883</v>
+        <v>2060</v>
       </c>
       <c r="D13">
-        <v>2115.28901417722</v>
+        <v>2115</v>
       </c>
       <c r="E13">
-        <v>2141.866581404484</v>
+        <v>2142</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_Fiets.xlsx
@@ -397,7 +397,7 @@
         <v>2209.506760522721</v>
       </c>
       <c r="E2">
-        <v>2207.634784525159</v>
+        <v>2207.63478452516</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -442,7 +442,7 @@
         <v>2198.448727043448</v>
       </c>
       <c r="C5">
-        <v>2203.867710797489</v>
+        <v>2203.86771079749</v>
       </c>
       <c r="D5">
         <v>2208.719627036477</v>
@@ -465,7 +465,7 @@
         <v>2218.606106432128</v>
       </c>
       <c r="E6">
-        <v>2215.53731907797</v>
+        <v>2215.537319077971</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -479,7 +479,7 @@
         <v>2203.383159260813</v>
       </c>
       <c r="D7">
-        <v>2209.81957095418</v>
+        <v>2209.819570954181</v>
       </c>
       <c r="E7">
         <v>2207.230470444339</v>
@@ -533,7 +533,7 @@
         <v>2130.293612486543</v>
       </c>
       <c r="E10">
-        <v>2151.92790802539</v>
+        <v>2151.927908025389</v>
       </c>
     </row>
     <row r="11" spans="1:5">
